--- a/Business/Khách hàng gửi/Các buoc Update 1 trang thai .xlsx
+++ b/Business/Khách hàng gửi/Các buoc Update 1 trang thai .xlsx
@@ -5,18 +5,23 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89004441-5538-4921-BEE7-658CE16C5EA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB174D-9A67-4430-8ABC-7003FB4CD5CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1125,17 +1130,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,25 +1170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1512,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1541,11 +1546,11 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1570,35 +1575,35 @@
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="8" t="s">
@@ -1616,7 +1621,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1636,18 +1641,18 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="12"/>
@@ -1664,59 +1669,59 @@
       <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="E19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="6" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1732,11 +1737,11 @@
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1760,48 +1765,48 @@
       <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="E29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="25"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="13" t="s">
         <v>24</v>
       </c>
@@ -1810,22 +1815,22 @@
       <c r="D32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1844,11 +1849,11 @@
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1889,72 +1894,72 @@
       <c r="D41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="E42" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="20"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="25"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="20"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="25"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="13" t="s">
         <v>33</v>
       </c>
@@ -1977,10 +1982,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1994,11 +1999,11 @@
       <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2039,72 +2044,72 @@
       <c r="D55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
+      <c r="E56" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="20"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="25"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="13"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D60" s="20"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="25"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="13" t="s">
         <v>33</v>
       </c>
@@ -2125,10 +2130,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2142,11 +2147,11 @@
       <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2193,74 +2198,74 @@
       <c r="D69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
       <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="E70" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
       <c r="J71" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D72" s="20"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="25"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D74" s="20"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="25"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D75" s="8" t="s">
@@ -2279,10 +2284,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D76" s="15"/>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="19"/>
       <c r="J76" s="11"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,11 +2302,11 @@
       <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2348,13 +2353,13 @@
       <c r="D84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
+      <c r="E84" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
       <c r="J84" s="16" t="s">
         <v>39</v>
       </c>
@@ -2363,63 +2368,63 @@
       <c r="D85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
+      <c r="E85" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="23"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="28"/>
       <c r="J86" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D87" s="20"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="25"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="30"/>
       <c r="J87" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E88" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="28"/>
       <c r="J88" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D89" s="20"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="25"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="30"/>
       <c r="J89" s="13"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,10 +2450,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F92" s="26" t="s">
+      <c r="F92" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="28"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -2462,11 +2467,11 @@
       <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.25">
@@ -2513,13 +2518,13 @@
       <c r="D99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
+      <c r="E99" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
       <c r="J99" s="16" t="s">
         <v>39</v>
       </c>
@@ -2528,63 +2533,63 @@
       <c r="D100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
+      <c r="E100" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="28"/>
       <c r="J101" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D102" s="20"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="25"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="30"/>
       <c r="J102" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="E103" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D104" s="20"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="25"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="30"/>
       <c r="J104" s="13"/>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.25">
@@ -2621,33 +2626,20 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:I46"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:I44"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:I104"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:I89"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:I102"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="E73:I74"/>
     <mergeCell ref="E52:I52"/>
@@ -2662,20 +2654,33 @@
     <mergeCell ref="E70:I70"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:I72"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:I104"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:I89"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="E100:I100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:I102"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:I46"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:I44"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
